--- a/docs/PTA2_DDC_20/PTA1_R_BDDC_24.07.24_output.xlsx
+++ b/docs/PTA2_DDC_20/PTA1_R_BDDC_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,418 +505,497 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731001115.5216293</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731001117.3086536</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001115.5216293.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001117.3086536.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.82</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731001117.8922448</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731001118.9321814</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001117.8922448.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001118.9321814.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.36</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.81</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731001121.3100517</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731001121.6017518</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001121.3100517.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731001121.6017518.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.07</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>295.93</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731001121.7889116</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731001121.7889116.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731001121.7889116.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>296.26</v>
       </c>
-      <c r="J6" t="n">
-        <v>296.26</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731001122.3503866</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731001124.3369474</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001122.3503866.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001124.3369474.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>135.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731001126.9400384</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731001128.0773225</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001126.9400384.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001128.0773225.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>136.44</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>136.51</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731001129.678584</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731001129.8637402</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001129.678584.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731001129.8637402.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>137.08</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.89</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1900000000000261</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731001130.1078198</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731001130.1078198.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731001130.1078198.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>136.76</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.76</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,2337 +1003,2778 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731001130.465434</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731001130.568506</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001130.465434.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001130.568506.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6971</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731001133.6628218</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731001135.1321762</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001133.6628218.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001135.1321762.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6960.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6967</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731001136.834957</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731001137.5712237</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001136.834957.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001137.5712237.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6949.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6958.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>9</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731001137.779072</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731001138.1279879</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001137.779072.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731001138.1279879.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6980</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6966.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731001138.546343</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731001143.3213677</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001138.546343.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001143.3213677.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>533.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>536.3</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-3.099999999999909</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731001144.1705875</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731001144.793218</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001144.1705875.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731001144.793218.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>535.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>536.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.149999999999977</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731001145.956711</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731001145.956711.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731001145.956711.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>537.05</v>
       </c>
-      <c r="J17" t="n">
-        <v>537.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>537</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731001146.739812</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731001148.337413</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001146.739812.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001148.337413.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1098</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>5.400000000000091</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731001148.4102774</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731001148.8676925</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001148.4102774.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731001148.8676925.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1100</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5.200000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731001152.0874414</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731001152.0874414.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731001152.0874414.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731001155.8244457</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731001157.908756</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001155.8244457.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001157.908756.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.48</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.32</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731001158.071706</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731001158.4575987</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001158.071706.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001158.4575987.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.68</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731001158.914954</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731001159.1797743</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001158.914954.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001159.1797743.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>128.96</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>129.42</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731001159.354308</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731001161.6324375</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001159.354308.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731001161.6324375.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.74</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>131.02</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.280000000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731001167.49073</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731001170.7270532</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731001167.49073.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731001170.7270532.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>168.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>172.44</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-3.939999999999998</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-2.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731001170.9484954</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731001170.9484954.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731001170.9484954.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>172.18</v>
       </c>
-      <c r="J26" t="n">
-        <v>172.18</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731001174.8780704</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731001175.0168428</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731001174.8780704.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731001175.0168428.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>53.395</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>53.32</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731001175.725394</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731001178.5876193</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731001175.725394.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731001178.5876193.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>53.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>53.66</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.259999999999998</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731001178.9499445</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731001178.9499445.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731001178.9499445.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>53.605</v>
       </c>
-      <c r="J29" t="n">
-        <v>53.605</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731001180.8386123</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731001184.6984248</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731001180.8386123.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731001184.6984248.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1465</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731001186.777468</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731001187.3715172</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731001186.777468.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731001187.3715172.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1470.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731001187.4207919</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731001187.4207919.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731001187.4207919.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1468</v>
       </c>
-      <c r="J32" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731001189.2495837</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731001190.5212476</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001189.2495837.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001190.5212476.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>63.85</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2199999999999918</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731001191.8809402</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731001192.4973497</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001191.8809402.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001192.4973497.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>64.14</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>63.89</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731001193.1102123</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731001194.8693933</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001193.1102123.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001194.8693933.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>64.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>64.16</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731001195.4927735</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731001195.7389598</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001195.4927735.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731001195.7389598.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>63.91</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>64.11</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731001199.4126089</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731001199.6605632</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731001199.4126089.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731001199.6605632.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>59.21</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>59.23</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731001199.9212515</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731001201.0752742</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731001199.9212515.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731001201.0752742.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>59.03</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>59.05</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731001201.9502115</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731001203.6658058</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731001201.9502115.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731001203.6658058.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.15</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.24</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731001207.4205196</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731001207.6621146</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731001207.4205196.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731001207.6621146.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>145.74</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>145.82</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731001208.4556918</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731001209.6296182</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731001208.4556918.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731001209.6296182.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>145.92</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>145.7</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731001210.2137804</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731001211.747116</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731001210.2137804.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731001211.747116.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>145.32</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>145.38</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731001212.797063</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731001213.211925</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731001212.797063.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731001213.211925.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>91.5</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>90.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.299999999999997</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731001214.625931</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731001216.866105</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731001214.625931.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731001216.866105.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>89.86</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>89.36</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731001218.3112028</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731001218.7568765</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731001218.3112028.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731001218.7568765.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>89.31999999999999</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>89.26000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.05999999999998806</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731001221.6180809</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731001223.4522061</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731001221.6180809.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731001223.4522061.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>362.33</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>362.65</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.3199999999999932</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731001226.6007757</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731001227.9375923</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731001226.6007757.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731001227.9375923.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>363.7</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>371.02</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-7.319999999999993</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-2.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731001228.3706772</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731001228.3706772.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731001228.3706772.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>370.56</v>
       </c>
-      <c r="J48" t="n">
-        <v>370.56</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731001229.365628</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731001231.7212229</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001229.365628.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001231.7212229.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.0007999999999999952</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731001232.3326862</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731001232.8103719</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001232.3326862.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001232.8103719.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.1008</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0003999999999999976</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731001233.603523</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731001235.7039435</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001233.603523.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001235.7039435.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.10026</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.10062</v>
       </c>
-      <c r="K51" t="n">
-        <v>0.0003600000000000131</v>
+      <c r="M51" t="n">
+        <v>0.0003599999999999992</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731001235.7199013</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731001236.090716</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001235.7199013.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/FEES1731001236.090716.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.10062</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.10042</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.0002000000000000057</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731001236.7360437</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731001236.7360437.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731001236.7360437.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>0.10024</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.000000000000612e-05</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731001236.9452019</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731001239.128531</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001236.9452019.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001239.128531.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>3117.25</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.09999999999990905</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731001240.3551939</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731001240.9082813</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001240.3551939.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001240.9082813.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>3115.85</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>3119.55</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>3.700000000000273</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731001241.6333525</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731001243.5734928</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001241.6333525.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001243.5734928.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>3124.55</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>3121.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>2.650000000000091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731001244.3498094</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731001245.0044155</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001244.3498094.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731001245.0044155.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>3126.75</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>3133.2</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-6.449999999999818</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731001248.4560246</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731001251.106483</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731001248.4560246.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731001251.106483.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>38.095</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>37.97</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731001252.5546875</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731001252.5546875.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731001252.5546875.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>38.03</v>
       </c>
-      <c r="J59" t="n">
-        <v>38.03</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3277,6 +3812,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3285,11 +3835,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001600000000000212</v>
+        <v>0.0001800000000000135</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>3.60000000000027e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3303,6 +3862,15 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.04999999999984084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3316,6 +3884,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.04250000000001108</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3329,6 +3906,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.07000000000000739</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2200000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3342,6 +3928,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3350,11 +3945,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7599999999999909</v>
+        <v>0.5199999999999818</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3368,6 +3972,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.1775000000000002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3376,11 +3989,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.60000000000014</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.1333333333333636</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3394,6 +4016,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1199999999999951</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3407,6 +4038,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.01666666666667046</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3415,11 +4055,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.949999999999932</v>
+        <v>-1.899999999999977</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.6333333333333258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3433,6 +4082,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.2866666666666617</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9300000000000002</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3441,11 +4099,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1849999999999952</v>
+        <v>-0.2549999999999955</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.08499999999999848</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3454,11 +4121,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.799999999999955</v>
+        <v>-5</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3467,11 +4143,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.639999999999986</v>
+        <v>-7.95999999999998</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-2.653333333333327</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3480,11 +4165,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.939999999999998</v>
+        <v>-4.379999999999995</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-2.189999999999998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3493,11 +4187,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.125</v>
+        <v>-0.08999999999999631</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.04499999999999815</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3511,6 +4214,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
